--- a/Public_data/Input_FW_part1/EURAL_codes_FW.xlsx
+++ b/Public_data/Input_FW_part1/EURAL_codes_FW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rusnesileryte/Documents/GitHub/geoFluxus/Public_data/Input_FW_part1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CC0CF8-A399-254F-8520-BE2AA6F65C27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164297D9-B05E-DD4D-AEA3-54B086734D3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8360" yWindow="2620" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-480" yWindow="-15320" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
-  <si>
-    <t>biologisch afbreekbaar afval</t>
-  </si>
-  <si>
-    <t>spijsolie en -vetten</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="80">
   <si>
     <t>Non-hazardous</t>
   </si>
@@ -38,6 +32,234 @@
   </si>
   <si>
     <t>Haz</t>
+  </si>
+  <si>
+    <t>020101</t>
+  </si>
+  <si>
+    <t>slib van wassen en schoonmaken</t>
+  </si>
+  <si>
+    <t>020102</t>
+  </si>
+  <si>
+    <t>afval van dierlijke weefsels</t>
+  </si>
+  <si>
+    <t>020103</t>
+  </si>
+  <si>
+    <t>afval van plantaardige weefsels</t>
+  </si>
+  <si>
+    <t>020104</t>
+  </si>
+  <si>
+    <t>kunststofafval (exclusief verpakkingen)</t>
+  </si>
+  <si>
+    <t>020106</t>
+  </si>
+  <si>
+    <t>dierlijke feces, urine en mest (inclusief gebruikt stro), afvalwater, gescheiden ingezameld en elders verwerkt</t>
+  </si>
+  <si>
+    <t>020107</t>
+  </si>
+  <si>
+    <t>afval van de bosbouw</t>
+  </si>
+  <si>
+    <t>020108</t>
+  </si>
+  <si>
+    <t>020109</t>
+  </si>
+  <si>
+    <t>niet onder 02 01 08 vallend agrochemisch afval</t>
+  </si>
+  <si>
+    <t>020110</t>
+  </si>
+  <si>
+    <t>metaalafval</t>
+  </si>
+  <si>
+    <t>020199</t>
+  </si>
+  <si>
+    <t>niet elders genoemd afval</t>
+  </si>
+  <si>
+    <t>020201</t>
+  </si>
+  <si>
+    <t>020202</t>
+  </si>
+  <si>
+    <t>020203</t>
+  </si>
+  <si>
+    <t>voor consumptie of verwerking ongeschikt materiaal</t>
+  </si>
+  <si>
+    <t>020204</t>
+  </si>
+  <si>
+    <t>slib van afvalwaterbehandeling ter plaatse</t>
+  </si>
+  <si>
+    <t>020299</t>
+  </si>
+  <si>
+    <t>020301</t>
+  </si>
+  <si>
+    <t>slib van wassen, schoonmaken, pellen, centrifugeren en scheiden</t>
+  </si>
+  <si>
+    <t>020304</t>
+  </si>
+  <si>
+    <t>020305</t>
+  </si>
+  <si>
+    <t>020399</t>
+  </si>
+  <si>
+    <t>020499</t>
+  </si>
+  <si>
+    <t>020501</t>
+  </si>
+  <si>
+    <t>020502</t>
+  </si>
+  <si>
+    <t>020599</t>
+  </si>
+  <si>
+    <t>020601</t>
+  </si>
+  <si>
+    <t>020603</t>
+  </si>
+  <si>
+    <t>020699</t>
+  </si>
+  <si>
+    <t>020702</t>
+  </si>
+  <si>
+    <t>afval van de destillatie van alcoholische dranken</t>
+  </si>
+  <si>
+    <t>020704</t>
+  </si>
+  <si>
+    <t>020705</t>
+  </si>
+  <si>
+    <t>020799</t>
+  </si>
+  <si>
+    <t>030105</t>
+  </si>
+  <si>
+    <t>niet onder 03 01 04 vallend zaagsel, schaafsel, spaanders, hout, spaanplaat en fineer</t>
+  </si>
+  <si>
+    <t>030301</t>
+  </si>
+  <si>
+    <t>schors- en houtafval</t>
+  </si>
+  <si>
+    <t>030307</t>
+  </si>
+  <si>
+    <t>mechanisch afgescheiden rejects afkomstig van de verpulping van papier- en kartonafval</t>
+  </si>
+  <si>
+    <t>030308</t>
+  </si>
+  <si>
+    <t>afval van het scheiden van voor recycling bestemd papier en karton</t>
+  </si>
+  <si>
+    <t>030310</t>
+  </si>
+  <si>
+    <t>onbruikbare vezels en door mechanische afscheiding verkregen vezel-, vulstof- en coatingslib</t>
+  </si>
+  <si>
+    <t>030311</t>
+  </si>
+  <si>
+    <t>niet onder 03 03 10 vallend slib van afvalwaterbehandeling ter plaatse</t>
+  </si>
+  <si>
+    <t>030399</t>
+  </si>
+  <si>
+    <t>040102</t>
+  </si>
+  <si>
+    <t>loogafval</t>
+  </si>
+  <si>
+    <t>040106</t>
+  </si>
+  <si>
+    <t>chroomhoudend slib, met name van afvalwaterbehandeling ter plaatse</t>
+  </si>
+  <si>
+    <t>040109</t>
+  </si>
+  <si>
+    <t>afval van bewerking en afwerking</t>
+  </si>
+  <si>
+    <t>040209</t>
+  </si>
+  <si>
+    <t>afval van composietmaterialen (geïmpregneerde textiel, elastomeren, plastomeren)</t>
+  </si>
+  <si>
+    <t>040214</t>
+  </si>
+  <si>
+    <t>afval van afwerking dat organische oplosmiddelen bevat</t>
+  </si>
+  <si>
+    <t>040216</t>
+  </si>
+  <si>
+    <t>040219</t>
+  </si>
+  <si>
+    <t>040220</t>
+  </si>
+  <si>
+    <t>niet onder 04 02 19 vallend slib van afvalwaterbehandeling ter plaatse</t>
+  </si>
+  <si>
+    <t>040222</t>
+  </si>
+  <si>
+    <t>afval van verwerkte textielvezels</t>
+  </si>
+  <si>
+    <t>agrochemisch afval dat Hazardouse stoffen bevat</t>
+  </si>
+  <si>
+    <t>Hazardous</t>
+  </si>
+  <si>
+    <t>kleurstoffen en pigmenten die Hazardouse stoffen bevatten</t>
+  </si>
+  <si>
+    <t>slib van afvalwaterbehandeling ter plaatse dat Hazardouse stoffen bevat</t>
   </si>
 </sst>
 </file>
@@ -439,45 +661,529 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>200201</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>200125</v>
+      <c r="A3" t="s">
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Public_data/Input_FW_part1/EURAL_codes_FW.xlsx
+++ b/Public_data/Input_FW_part1/EURAL_codes_FW.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rusnesileryte/Documents/GitHub/geoFluxus/Public_data/Input_FW_part1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164297D9-B05E-DD4D-AEA3-54B086734D3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CBCE85-128A-B740-BB4C-E11A86F6EC6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-480" yWindow="-15320" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="11180" windowHeight="17080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="62">
   <si>
     <t>Non-hazardous</t>
   </si>
@@ -202,64 +202,10 @@
     <t>030399</t>
   </si>
   <si>
-    <t>040102</t>
-  </si>
-  <si>
-    <t>loogafval</t>
-  </si>
-  <si>
-    <t>040106</t>
-  </si>
-  <si>
-    <t>chroomhoudend slib, met name van afvalwaterbehandeling ter plaatse</t>
-  </si>
-  <si>
-    <t>040109</t>
-  </si>
-  <si>
-    <t>afval van bewerking en afwerking</t>
-  </si>
-  <si>
-    <t>040209</t>
-  </si>
-  <si>
-    <t>afval van composietmaterialen (geïmpregneerde textiel, elastomeren, plastomeren)</t>
-  </si>
-  <si>
-    <t>040214</t>
-  </si>
-  <si>
-    <t>afval van afwerking dat organische oplosmiddelen bevat</t>
-  </si>
-  <si>
-    <t>040216</t>
-  </si>
-  <si>
-    <t>040219</t>
-  </si>
-  <si>
-    <t>040220</t>
-  </si>
-  <si>
-    <t>niet onder 04 02 19 vallend slib van afvalwaterbehandeling ter plaatse</t>
-  </si>
-  <si>
-    <t>040222</t>
-  </si>
-  <si>
-    <t>afval van verwerkte textielvezels</t>
-  </si>
-  <si>
     <t>agrochemisch afval dat Hazardouse stoffen bevat</t>
   </si>
   <si>
     <t>Hazardous</t>
-  </si>
-  <si>
-    <t>kleurstoffen en pigmenten die Hazardouse stoffen bevatten</t>
-  </si>
-  <si>
-    <t>slib van afvalwaterbehandeling ter plaatse dat Hazardouse stoffen bevat</t>
   </si>
 </sst>
 </file>
@@ -283,12 +229,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -318,10 +270,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -661,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -681,508 +659,409 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" t="s">
-        <v>77</v>
+      <c r="B8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="A32" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="A34" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="A35" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="A36" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="A37" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="A38" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C38" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B39" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>62</v>
-      </c>
-      <c r="B40" t="s">
-        <v>63</v>
-      </c>
-      <c r="C40" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>64</v>
-      </c>
-      <c r="B41" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>68</v>
-      </c>
-      <c r="B43" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>70</v>
-      </c>
-      <c r="B44" t="s">
-        <v>78</v>
-      </c>
-      <c r="C44" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>71</v>
-      </c>
-      <c r="B45" t="s">
-        <v>79</v>
-      </c>
-      <c r="C45" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>72</v>
-      </c>
-      <c r="B46" t="s">
-        <v>73</v>
-      </c>
-      <c r="C46" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>74</v>
-      </c>
-      <c r="B47" t="s">
-        <v>75</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="C38" s="9" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Public_data/Input_FW_part1/EURAL_codes_FW.xlsx
+++ b/Public_data/Input_FW_part1/EURAL_codes_FW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rusnesileryte/Documents/GitHub/geoFluxus/Public_data/Input_FW_part1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CBCE85-128A-B740-BB4C-E11A86F6EC6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87039AB-C948-1C49-8F5B-F55FB54FEADC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="11180" windowHeight="17080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3140" yWindow="4820" windowWidth="13240" windowHeight="17080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -646,6 +646,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">

--- a/Public_data/Input_FW_part1/EURAL_codes_FW.xlsx
+++ b/Public_data/Input_FW_part1/EURAL_codes_FW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rusnesileryte/Documents/GitHub/geoFluxus/Public_data/Input_FW_part1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87039AB-C948-1C49-8F5B-F55FB54FEADC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9148472E-33E2-B94B-BC64-789BBA04FC3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3140" yWindow="4820" windowWidth="13240" windowHeight="17080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3200" yWindow="-19840" windowWidth="13240" windowHeight="17080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="64">
   <si>
     <t>Non-hazardous</t>
   </si>
@@ -206,6 +206,12 @@
   </si>
   <si>
     <t>Hazardous</t>
+  </si>
+  <si>
+    <t>200125</t>
+  </si>
+  <si>
+    <t>spijsolie en -vetten</t>
   </si>
 </sst>
 </file>
@@ -270,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -278,28 +284,24 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -639,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -665,10 +667,10 @@
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -676,10 +678,10 @@
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -687,10 +689,10 @@
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -698,10 +700,10 @@
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -709,10 +711,10 @@
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -720,10 +722,10 @@
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -731,10 +733,10 @@
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="8" t="s">
         <v>61</v>
       </c>
     </row>
@@ -742,10 +744,10 @@
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -753,10 +755,10 @@
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -764,10 +766,10 @@
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -775,10 +777,10 @@
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -786,10 +788,10 @@
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -797,10 +799,10 @@
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -808,10 +810,10 @@
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -819,10 +821,10 @@
       <c r="A16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -830,10 +832,10 @@
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -841,10 +843,10 @@
       <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -852,10 +854,10 @@
       <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -863,10 +865,10 @@
       <c r="A20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -874,10 +876,10 @@
       <c r="A21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -885,10 +887,10 @@
       <c r="A22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -896,21 +898,21 @@
       <c r="A23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -918,10 +920,10 @@
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -929,10 +931,10 @@
       <c r="A26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -940,10 +942,10 @@
       <c r="A27" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -951,10 +953,10 @@
       <c r="A28" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -962,10 +964,10 @@
       <c r="A29" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -973,98 +975,109 @@
       <c r="A30" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>0</v>
       </c>
     </row>
